--- a/컬럼명 작성/버스킹 테이블 설계서_강성현.xlsx
+++ b/컬럼명 작성/버스킹 테이블 설계서_강성현.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19017"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\git\java100-3team\컬럼명 작성\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="856054AA3C0494F7F0D771341DBE86054C731409" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8055" xr2:uid="{47A0BD09-75DE-4A21-A615-B2DCB4677B00}"/>
   </bookViews>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="142">
   <si>
     <t>회원정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tamememb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>teamMember</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,18 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해지여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancelfl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancelFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가입날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,6 +580,16 @@
   <si>
     <t>noticeDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acntStts</t>
+  </si>
+  <si>
+    <t>accountStatus</t>
   </si>
 </sst>
 </file>
@@ -745,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,6 +790,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -815,7 +811,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1113,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6F4EA-9D8E-4C2A-A3E1-4B6670EFBC98}">
   <dimension ref="B2:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{6CDAA454-34A1-576C-BCCA-BB7BDEF93C55}">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1307,13 +1303,13 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -1322,24 +1318,24 @@
         <v>16</v>
       </c>
       <c r="H8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>37</v>
@@ -1351,33 +1347,33 @@
         <v>39</v>
       </c>
       <c r="H9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="1"/>
@@ -1385,22 +1381,22 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="1"/>
@@ -1408,22 +1404,22 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="E12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="1"/>
@@ -1431,22 +1427,22 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="1"/>
@@ -1454,13 +1450,13 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="1"/>
@@ -1471,13 +1467,13 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="12" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>140</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="1"/>
@@ -1488,13 +1484,13 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="1"/>
@@ -1505,31 +1501,31 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="G19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="I19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="J19" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1575,10 +1571,10 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>19</v>
@@ -1601,13 +1597,13 @@
         <v>24</v>
       </c>
       <c r="E22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H22" s="13" t="s">
         <v>22</v>
@@ -1630,13 +1626,13 @@
         <v>30</v>
       </c>
       <c r="E23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>28</v>
@@ -1659,13 +1655,13 @@
         <v>36</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>34</v>
@@ -1679,7 +1675,7 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>15</v>
@@ -1691,13 +1687,13 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -1714,70 +1710,70 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
       <c r="H27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="15"/>
@@ -1788,42 +1784,42 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="G32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="H32" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>11</v>
@@ -1846,13 +1842,13 @@
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>19</v>
@@ -1864,24 +1860,24 @@
         <v>21</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>22</v>
@@ -1893,24 +1889,24 @@
         <v>24</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>28</v>
@@ -1922,24 +1918,24 @@
         <v>30</v>
       </c>
       <c r="H36" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>34</v>
@@ -1959,13 +1955,13 @@
       <c r="C38" s="2"/>
       <c r="D38" s="4"/>
       <c r="E38" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="1"/>
@@ -1976,13 +1972,13 @@
       <c r="C39" s="1"/>
       <c r="D39" s="4"/>
       <c r="E39" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="1"/>
@@ -1993,13 +1989,13 @@
       <c r="C40" s="2"/>
       <c r="D40" s="4"/>
       <c r="E40" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="2"/>
@@ -2010,13 +2006,13 @@
       <c r="C41" s="1"/>
       <c r="D41" s="4"/>
       <c r="E41" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="1"/>
@@ -2024,46 +2020,46 @@
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:4">
